--- a/src/test/resources/hackathon.xlsx
+++ b/src/test/resources/hackathon.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Error message</t>
   </si>
   <si>
-    <t xml:space="preserve">Chrome</t>
+    <t xml:space="preserve">firefox</t>
   </si>
   <si>
     <t xml:space="preserve">zigwheels99@gmail.com</t>
@@ -165,7 +165,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
